--- a/CO_County_Taxes_2014_2018.xlsx
+++ b/CO_County_Taxes_2014_2018.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6096B8E9-6B2E-40FF-A645-83E811C488CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{6096B8E9-6B2E-40FF-A645-83E811C488CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{EA064FD6-77A3-4363-8932-747DD58A2AAD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="aggregate" sheetId="13" r:id="rId1"/>
@@ -22,6 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">' Taxes 2017 Mthly'!$A$1:$F$781</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">aggregate!$A$1:$E$326</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Taxes 2014 Mthly'!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Taxes 2015 Mthly'!$A$1:$F$781</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Taxes 2016 Ann'!$A$1:$E$66</definedName>
@@ -1575,9 +1576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543B184F-19C2-4ADD-90FE-136846869FA6}">
   <dimension ref="A1:E326"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -6816,6 +6815,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E326" xr:uid="{7B33CFC1-57D8-4F08-AF46-DF5E967002A3}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -72800,7 +72800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A48C4B-7864-4C4C-A8A8-E666B377E405}">
   <dimension ref="A1:J792"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A756" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J792" sqref="J792"/>
     </sheetView>

--- a/CO_County_Taxes_2014_2018.xlsx
+++ b/CO_County_Taxes_2014_2018.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{6096B8E9-6B2E-40FF-A645-83E811C488CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{EA064FD6-77A3-4363-8932-747DD58A2AAD}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="6_{17C3535E-D495-41A9-B44D-E66D0B205D12}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{493FE5D2-5D9A-43F6-AA26-FE8A49F2CEF7}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">' Taxes 2017 Mthly'!$A$1:$F$781</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">aggregate!$A$1:$E$326</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">aggregate!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Taxes 2014 Mthly'!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Taxes 2015 Mthly'!$A$1:$F$781</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Taxes 2016 Ann'!$A$1:$E$66</definedName>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6482" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6636" uniqueCount="73">
   <si>
     <t>County</t>
   </si>
@@ -1576,7 +1576,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543B184F-19C2-4ADD-90FE-136846869FA6}">
   <dimension ref="A1:E326"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1621,7 +1623,9 @@
       <c r="B3" s="5">
         <v>2014</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D3" s="4">
         <v>0</v>
       </c>
@@ -1653,9 +1657,15 @@
       <c r="B5" s="5">
         <v>2014</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -1735,8 +1745,12 @@
       <c r="C10" s="8">
         <v>15178</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="D10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
@@ -1796,9 +1810,15 @@
       <c r="B14" s="5">
         <v>2014</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="C14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
@@ -1946,8 +1966,12 @@
       <c r="C23" s="8">
         <v>1743466</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
+      <c r="D23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
@@ -2007,7 +2031,9 @@
       <c r="B27" s="5">
         <v>2014</v>
       </c>
-      <c r="C27" s="5"/>
+      <c r="C27" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D27" s="5">
         <v>0</v>
       </c>
@@ -2141,9 +2167,15 @@
       <c r="B35" s="5">
         <v>2014</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
+      <c r="C35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
@@ -2189,8 +2221,12 @@
       <c r="C38" s="5">
         <v>0</v>
       </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
+      <c r="D38" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
@@ -2233,7 +2269,9 @@
       <c r="B41" s="5">
         <v>2014</v>
       </c>
-      <c r="C41" s="5"/>
+      <c r="C41" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D41" s="5">
         <v>0</v>
       </c>
@@ -2265,7 +2303,9 @@
       <c r="B43" s="5">
         <v>2014</v>
       </c>
-      <c r="C43" s="5"/>
+      <c r="C43" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D43" s="5">
         <v>0</v>
       </c>
@@ -2297,7 +2337,9 @@
       <c r="B45" s="5">
         <v>2014</v>
       </c>
-      <c r="C45" s="5"/>
+      <c r="C45" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D45" s="5">
         <v>0</v>
       </c>
@@ -2312,9 +2354,15 @@
       <c r="B46" s="5">
         <v>2014</v>
       </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
+      <c r="C46" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
@@ -2323,9 +2371,15 @@
       <c r="B47" s="5">
         <v>2014</v>
       </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
+      <c r="C47" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
@@ -2334,9 +2388,15 @@
       <c r="B48" s="5">
         <v>2014</v>
       </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
+      <c r="C48" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
@@ -2345,9 +2405,15 @@
       <c r="B49" s="5">
         <v>2014</v>
       </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
+      <c r="C49" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
@@ -2461,8 +2527,12 @@
       <c r="C56" s="5">
         <v>45293</v>
       </c>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
+      <c r="D56" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
@@ -2471,9 +2541,15 @@
       <c r="B57" s="5">
         <v>2014</v>
       </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
+      <c r="C57" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
@@ -2516,9 +2592,15 @@
       <c r="B60" s="5">
         <v>2014</v>
       </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
+      <c r="C60" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
@@ -2544,7 +2626,9 @@
       <c r="B62" s="5">
         <v>2014</v>
       </c>
-      <c r="C62" s="5"/>
+      <c r="C62" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D62" s="5">
         <v>0</v>
       </c>
@@ -2644,7 +2728,9 @@
       <c r="B68" s="5">
         <v>2015</v>
       </c>
-      <c r="C68" s="2"/>
+      <c r="C68" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D68" s="2">
         <v>0</v>
       </c>
@@ -2676,9 +2762,15 @@
       <c r="B70" s="5">
         <v>2015</v>
       </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
+      <c r="C70" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
@@ -2755,7 +2847,9 @@
       <c r="B75" s="5">
         <v>2015</v>
       </c>
-      <c r="C75" s="2"/>
+      <c r="C75" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D75" s="2">
         <v>74682</v>
       </c>
@@ -2807,8 +2901,12 @@
       <c r="C78" s="2">
         <v>0</v>
       </c>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
+      <c r="D78" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
@@ -2817,9 +2915,15 @@
       <c r="B79" s="5">
         <v>2015</v>
       </c>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
+      <c r="C79" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
@@ -2967,8 +3071,12 @@
       <c r="C88" s="2">
         <v>2348200</v>
       </c>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
+      <c r="D88" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
@@ -3028,7 +3136,9 @@
       <c r="B92" s="5">
         <v>2015</v>
       </c>
-      <c r="C92" s="2"/>
+      <c r="C92" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D92" s="2">
         <v>32637</v>
       </c>
@@ -3080,8 +3190,12 @@
       <c r="C95" s="2">
         <v>0</v>
       </c>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
+      <c r="D95" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
@@ -3158,9 +3272,15 @@
       <c r="B100" s="5">
         <v>2015</v>
       </c>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
+      <c r="C100" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
@@ -3203,7 +3323,9 @@
       <c r="B103" s="5">
         <v>2015</v>
       </c>
-      <c r="C103" s="2"/>
+      <c r="C103" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D103" s="2">
         <v>216087</v>
       </c>
@@ -3252,9 +3374,15 @@
       <c r="B106" s="5">
         <v>2015</v>
       </c>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
+      <c r="C106" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
@@ -3280,7 +3408,9 @@
       <c r="B108" s="5">
         <v>2015</v>
       </c>
-      <c r="C108" s="2"/>
+      <c r="C108" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D108" s="2">
         <v>0</v>
       </c>
@@ -3312,7 +3442,9 @@
       <c r="B110" s="5">
         <v>2015</v>
       </c>
-      <c r="C110" s="2"/>
+      <c r="C110" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D110" s="2">
         <v>0</v>
       </c>
@@ -3327,9 +3459,15 @@
       <c r="B111" s="5">
         <v>2015</v>
       </c>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
+      <c r="C111" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
@@ -3355,7 +3493,9 @@
       <c r="B113" s="5">
         <v>2015</v>
       </c>
-      <c r="C113" s="2"/>
+      <c r="C113" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D113" s="2">
         <v>7326</v>
       </c>
@@ -3370,7 +3510,9 @@
       <c r="B114" s="5">
         <v>2015</v>
       </c>
-      <c r="C114" s="2"/>
+      <c r="C114" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D114" s="2">
         <v>49253</v>
       </c>
@@ -3507,8 +3649,12 @@
       <c r="C122" s="2">
         <v>0</v>
       </c>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
+      <c r="D122" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
@@ -3520,8 +3666,12 @@
       <c r="C123" s="2">
         <v>0</v>
       </c>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
+      <c r="D123" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
@@ -3547,9 +3697,15 @@
       <c r="B125" s="5">
         <v>2015</v>
       </c>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
+      <c r="C125" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
@@ -3575,7 +3731,9 @@
       <c r="B127" s="5">
         <v>2015</v>
       </c>
-      <c r="C127" s="2"/>
+      <c r="C127" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D127" s="2">
         <v>0</v>
       </c>
@@ -3675,7 +3833,9 @@
       <c r="B133" s="1">
         <v>2016</v>
       </c>
-      <c r="C133" s="2"/>
+      <c r="C133" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D133" s="2">
         <v>0</v>
       </c>
@@ -3707,7 +3867,9 @@
       <c r="B135" s="1">
         <v>2016</v>
       </c>
-      <c r="C135" s="2"/>
+      <c r="C135" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D135" s="2">
         <v>114538.02</v>
       </c>
@@ -3790,7 +3952,9 @@
       <c r="B140" s="1">
         <v>2016</v>
       </c>
-      <c r="C140" s="2"/>
+      <c r="C140" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D140" s="2">
         <v>74735</v>
       </c>
@@ -3856,7 +4020,9 @@
       <c r="B144" s="1">
         <v>2016</v>
       </c>
-      <c r="C144" s="2"/>
+      <c r="C144" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D144" s="2">
         <v>74690</v>
       </c>
@@ -4010,8 +4176,12 @@
       <c r="C153" s="2">
         <v>2730303.7199999997</v>
       </c>
-      <c r="D153" s="2"/>
-      <c r="E153" s="2"/>
+      <c r="D153" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
@@ -4071,7 +4241,9 @@
       <c r="B157" s="1">
         <v>2016</v>
       </c>
-      <c r="C157" s="2"/>
+      <c r="C157" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D157" s="2">
         <v>90518</v>
       </c>
@@ -4086,7 +4258,9 @@
       <c r="B158" s="1">
         <v>2016</v>
       </c>
-      <c r="C158" s="2"/>
+      <c r="C158" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D158" s="2">
         <v>161410.65</v>
       </c>
@@ -4121,8 +4295,12 @@
       <c r="C160" s="2">
         <v>0</v>
       </c>
-      <c r="D160" s="2"/>
-      <c r="E160" s="2"/>
+      <c r="D160" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
@@ -4250,7 +4428,9 @@
       <c r="B168" s="1">
         <v>2016</v>
       </c>
-      <c r="C168" s="2"/>
+      <c r="C168" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D168" s="2">
         <v>560017.56000000006</v>
       </c>
@@ -4299,9 +4479,15 @@
       <c r="B171" s="1">
         <v>2016</v>
       </c>
-      <c r="C171" s="2"/>
-      <c r="D171" s="2"/>
-      <c r="E171" s="2"/>
+      <c r="C171" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
@@ -4327,7 +4513,9 @@
       <c r="B173" s="1">
         <v>2016</v>
       </c>
-      <c r="C173" s="2"/>
+      <c r="C173" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D173" s="2">
         <v>0</v>
       </c>
@@ -4359,7 +4547,9 @@
       <c r="B175" s="1">
         <v>2016</v>
       </c>
-      <c r="C175" s="2"/>
+      <c r="C175" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D175" s="2">
         <v>0</v>
       </c>
@@ -4374,7 +4564,9 @@
       <c r="B176" s="1">
         <v>2016</v>
       </c>
-      <c r="C176" s="2"/>
+      <c r="C176" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D176" s="2">
         <v>112087</v>
       </c>
@@ -4406,7 +4598,9 @@
       <c r="B178" s="1">
         <v>2016</v>
       </c>
-      <c r="C178" s="2"/>
+      <c r="C178" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D178" s="2">
         <v>80008</v>
       </c>
@@ -4421,7 +4615,9 @@
       <c r="B179" s="1">
         <v>2016</v>
       </c>
-      <c r="C179" s="2"/>
+      <c r="C179" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D179" s="2">
         <v>94687.87</v>
       </c>
@@ -4558,8 +4754,12 @@
       <c r="C187" s="2">
         <v>0</v>
       </c>
-      <c r="D187" s="2"/>
-      <c r="E187" s="2"/>
+      <c r="D187" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E187" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
@@ -4568,9 +4768,15 @@
       <c r="B188" s="1">
         <v>2016</v>
       </c>
-      <c r="C188" s="2"/>
-      <c r="D188" s="2"/>
-      <c r="E188" s="2"/>
+      <c r="C188" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E188" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
@@ -4596,9 +4802,15 @@
       <c r="B190" s="1">
         <v>2016</v>
       </c>
-      <c r="C190" s="2"/>
-      <c r="D190" s="2"/>
-      <c r="E190" s="2"/>
+      <c r="C190" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D190" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E190" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
@@ -4624,7 +4836,9 @@
       <c r="B192" s="1">
         <v>2016</v>
       </c>
-      <c r="C192" s="2"/>
+      <c r="C192" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D192" s="2">
         <v>0</v>
       </c>
@@ -4724,7 +4938,9 @@
       <c r="B198" s="1">
         <v>2017</v>
       </c>
-      <c r="C198" s="2"/>
+      <c r="C198" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D198" s="2">
         <v>0</v>
       </c>
@@ -4756,7 +4972,9 @@
       <c r="B200" s="1">
         <v>2017</v>
       </c>
-      <c r="C200" s="2"/>
+      <c r="C200" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D200" s="2">
         <v>82679</v>
       </c>
@@ -4839,7 +5057,9 @@
       <c r="B205" s="1">
         <v>2017</v>
       </c>
-      <c r="C205" s="2"/>
+      <c r="C205" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D205" s="2">
         <v>57619</v>
       </c>
@@ -4905,7 +5125,9 @@
       <c r="B209" s="1">
         <v>2017</v>
       </c>
-      <c r="C209" s="2"/>
+      <c r="C209" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D209" s="2">
         <v>57306</v>
       </c>
@@ -5059,8 +5281,12 @@
       <c r="C218" s="2">
         <v>2805235</v>
       </c>
-      <c r="D218" s="2"/>
-      <c r="E218" s="2"/>
+      <c r="D218" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E218" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
@@ -5103,7 +5329,9 @@
       <c r="B221" s="1">
         <v>2017</v>
       </c>
-      <c r="C221" s="2"/>
+      <c r="C221" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D221" s="2">
         <v>45909</v>
       </c>
@@ -5118,7 +5346,9 @@
       <c r="B222" s="1">
         <v>2017</v>
       </c>
-      <c r="C222" s="2"/>
+      <c r="C222" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D222" s="2">
         <v>68515</v>
       </c>
@@ -5133,7 +5363,9 @@
       <c r="B223" s="1">
         <v>2017</v>
       </c>
-      <c r="C223" s="2"/>
+      <c r="C223" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D223" s="2">
         <v>107688</v>
       </c>
@@ -5168,8 +5400,12 @@
       <c r="C225" s="2">
         <v>0</v>
       </c>
-      <c r="D225" s="2"/>
-      <c r="E225" s="2"/>
+      <c r="D225" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E225" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
@@ -5348,8 +5584,12 @@
       <c r="B236" s="1">
         <v>2017</v>
       </c>
-      <c r="C236" s="2"/>
-      <c r="D236" s="2"/>
+      <c r="C236" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D236" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E236" s="2">
         <v>391722</v>
       </c>
@@ -5378,7 +5618,9 @@
       <c r="B238" s="1">
         <v>2017</v>
       </c>
-      <c r="C238" s="2"/>
+      <c r="C238" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D238" s="2">
         <v>0</v>
       </c>
@@ -5410,7 +5652,9 @@
       <c r="B240" s="1">
         <v>2017</v>
       </c>
-      <c r="C240" s="2"/>
+      <c r="C240" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D240" s="2">
         <v>0</v>
       </c>
@@ -5425,7 +5669,9 @@
       <c r="B241" s="1">
         <v>2017</v>
       </c>
-      <c r="C241" s="2"/>
+      <c r="C241" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D241" s="2">
         <v>93422</v>
       </c>
@@ -5440,7 +5686,9 @@
       <c r="B242" s="1">
         <v>2017</v>
       </c>
-      <c r="C242" s="2"/>
+      <c r="C242" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D242" s="2">
         <v>0</v>
       </c>
@@ -5455,7 +5703,9 @@
       <c r="B243" s="1">
         <v>2017</v>
       </c>
-      <c r="C243" s="2"/>
+      <c r="C243" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D243" s="2">
         <v>69834</v>
       </c>
@@ -5470,7 +5720,9 @@
       <c r="B244" s="1">
         <v>2017</v>
       </c>
-      <c r="C244" s="2"/>
+      <c r="C244" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D244" s="2">
         <v>66103</v>
       </c>
@@ -5607,7 +5859,9 @@
       <c r="C252" s="2">
         <v>0</v>
       </c>
-      <c r="D252" s="2"/>
+      <c r="D252" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E252" s="2">
         <v>49352</v>
       </c>
@@ -5622,8 +5876,12 @@
       <c r="C253" s="2">
         <v>0</v>
       </c>
-      <c r="D253" s="2"/>
-      <c r="E253" s="2"/>
+      <c r="D253" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E253" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
@@ -5649,9 +5907,15 @@
       <c r="B255" s="1">
         <v>2017</v>
       </c>
-      <c r="C255" s="2"/>
-      <c r="D255" s="2"/>
-      <c r="E255" s="2"/>
+      <c r="C255" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D255" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E255" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
@@ -5677,7 +5941,9 @@
       <c r="B257" s="1">
         <v>2017</v>
       </c>
-      <c r="C257" s="2"/>
+      <c r="C257" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D257" s="2">
         <v>0</v>
       </c>
@@ -5777,7 +6043,9 @@
       <c r="B263" s="1">
         <v>2018</v>
       </c>
-      <c r="C263" s="2"/>
+      <c r="C263" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D263" s="2">
         <v>0</v>
       </c>
@@ -5809,7 +6077,9 @@
       <c r="B265" s="1">
         <v>2018</v>
       </c>
-      <c r="C265" s="2"/>
+      <c r="C265" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D265" s="2">
         <v>0</v>
       </c>
@@ -5892,7 +6162,9 @@
       <c r="B270" s="1">
         <v>2018</v>
       </c>
-      <c r="C270" s="2"/>
+      <c r="C270" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D270" s="2">
         <v>0</v>
       </c>
@@ -5981,7 +6253,9 @@
       <c r="D275" s="2">
         <v>0</v>
       </c>
-      <c r="E275" s="2"/>
+      <c r="E275" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="7" t="s">
@@ -6115,7 +6389,9 @@
       <c r="D283" s="2">
         <v>0</v>
       </c>
-      <c r="E283" s="2"/>
+      <c r="E283" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="7" t="s">
@@ -6158,7 +6434,9 @@
       <c r="B286" s="1">
         <v>2018</v>
       </c>
-      <c r="C286" s="2"/>
+      <c r="C286" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D286" s="2">
         <v>0</v>
       </c>
@@ -6173,7 +6451,9 @@
       <c r="B287" s="1">
         <v>2018</v>
       </c>
-      <c r="C287" s="2"/>
+      <c r="C287" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D287" s="2">
         <v>0</v>
       </c>
@@ -6188,7 +6468,9 @@
       <c r="B288" s="1">
         <v>2018</v>
       </c>
-      <c r="C288" s="2"/>
+      <c r="C288" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D288" s="2">
         <v>0</v>
       </c>
@@ -6226,7 +6508,9 @@
       <c r="D290" s="2">
         <v>0</v>
       </c>
-      <c r="E290" s="2"/>
+      <c r="E290" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
@@ -6405,7 +6689,9 @@
       <c r="B301" s="1">
         <v>2018</v>
       </c>
-      <c r="C301" s="2"/>
+      <c r="C301" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D301" s="2">
         <v>0</v>
       </c>
@@ -6437,7 +6723,9 @@
       <c r="B303" s="1">
         <v>2018</v>
       </c>
-      <c r="C303" s="2"/>
+      <c r="C303" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D303" s="2">
         <v>0</v>
       </c>
@@ -6469,7 +6757,9 @@
       <c r="B305" s="1">
         <v>2018</v>
       </c>
-      <c r="C305" s="2"/>
+      <c r="C305" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D305" s="2">
         <v>0</v>
       </c>
@@ -6484,7 +6774,9 @@
       <c r="B306" s="1">
         <v>2018</v>
       </c>
-      <c r="C306" s="2"/>
+      <c r="C306" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D306" s="2">
         <v>0</v>
       </c>
@@ -6499,11 +6791,15 @@
       <c r="B307" s="1">
         <v>2018</v>
       </c>
-      <c r="C307" s="2"/>
+      <c r="C307" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D307" s="2">
         <v>0</v>
       </c>
-      <c r="E307" s="2"/>
+      <c r="E307" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="7" t="s">
@@ -6512,7 +6808,9 @@
       <c r="B308" s="1">
         <v>2018</v>
       </c>
-      <c r="C308" s="18"/>
+      <c r="C308" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D308" s="2">
         <v>0</v>
       </c>
@@ -6527,7 +6825,9 @@
       <c r="B309" s="1">
         <v>2018</v>
       </c>
-      <c r="C309" s="2"/>
+      <c r="C309" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D309" s="2">
         <v>0</v>
       </c>
@@ -6684,7 +6984,9 @@
       <c r="D318" s="2">
         <v>0</v>
       </c>
-      <c r="E318" s="2"/>
+      <c r="E318" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="7" t="s">
@@ -6693,7 +6995,9 @@
       <c r="B319" s="1">
         <v>2018</v>
       </c>
-      <c r="C319" s="2"/>
+      <c r="C319" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D319" s="2">
         <v>0</v>
       </c>
@@ -6708,11 +7012,15 @@
       <c r="B320" s="1">
         <v>2018</v>
       </c>
-      <c r="C320" s="2"/>
+      <c r="C320" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D320" s="2">
         <v>0</v>
       </c>
-      <c r="E320" s="2"/>
+      <c r="E320" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="7" t="s">
@@ -6738,7 +7046,9 @@
       <c r="B322" s="1">
         <v>2018</v>
       </c>
-      <c r="C322" s="2"/>
+      <c r="C322" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D322" s="2">
         <v>0</v>
       </c>
@@ -6815,7 +7125,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E326" xr:uid="{7B33CFC1-57D8-4F08-AF46-DF5E967002A3}"/>
+  <autoFilter ref="A1:E1" xr:uid="{1FB9889D-BE20-4F53-8B34-15575A7D64B9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/CO_County_Taxes_2014_2018.xlsx
+++ b/CO_County_Taxes_2014_2018.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="13" documentId="6_{17C3535E-D495-41A9-B44D-E66D0B205D12}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{493FE5D2-5D9A-43F6-AA26-FE8A49F2CEF7}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="6_{17C3535E-D495-41A9-B44D-E66D0B205D12}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{93489C94-3034-4D79-BD2B-B35AA4CFA31C}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">' Taxes 2017 Mthly'!$A$1:$F$781</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">aggregate!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">aggregate!$A$1:$E$326</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Taxes 2014 Mthly'!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Taxes 2015 Mthly'!$A$1:$F$781</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Taxes 2016 Ann'!$A$1:$E$66</definedName>
@@ -1577,7 +1577,7 @@
   <dimension ref="A1:E326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7125,7 +7125,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{1FB9889D-BE20-4F53-8B34-15575A7D64B9}"/>
+  <autoFilter ref="A1:E326" xr:uid="{1FB9889D-BE20-4F53-8B34-15575A7D64B9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
